--- a/Design docs/plantsim prototyping.xlsx
+++ b/Design docs/plantsim prototyping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
   <si>
     <t>HU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -481,6 +481,53 @@
   </si>
   <si>
     <t>m/s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Altitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kPa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//// can be excluded</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ELEV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Albedo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://en.wikipedia.org/wiki/Albedo</t>
+  </si>
+  <si>
+    <t>E(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potential soil evap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post growth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,16 +896,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1279,7 +1326,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>66</v>
       </c>
@@ -1292,7 +1339,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>67</v>
       </c>
@@ -1305,8 +1352,17 @@
       <c r="D34" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34">
+        <v>1800</v>
+      </c>
+      <c r="I34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -1321,7 +1377,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -1335,7 +1391,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>71</v>
       </c>
@@ -1349,7 +1405,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>76</v>
       </c>
@@ -1364,7 +1420,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
         <v>79</v>
       </c>
@@ -1372,7 +1428,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>81</v>
       </c>
@@ -1386,7 +1442,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>85</v>
       </c>
@@ -1394,14 +1450,14 @@
         <v>87</v>
       </c>
       <c r="C41">
-        <f>2.5 * C42 * C22</f>
-        <v>0.14120940133929491</v>
+        <f>2.5 * C42 * C21</f>
+        <v>1.2946141893962702</v>
       </c>
       <c r="D41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -1415,7 +1471,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>91</v>
       </c>
@@ -1425,7 +1481,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>92</v>
       </c>
@@ -1443,7 +1499,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -1458,7 +1514,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>98</v>
       </c>
@@ -1466,14 +1522,14 @@
         <v>99</v>
       </c>
       <c r="C46">
-        <f>C5</f>
-        <v>11.694599999999999</v>
+        <f>C5*(1-C52)</f>
+        <v>8.7709499999999991</v>
       </c>
       <c r="D46" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -1491,7 +1547,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>107</v>
       </c>
@@ -1506,20 +1562,70 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>111</v>
       </c>
       <c r="B49" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C49">
+        <f>101 - 0.0115 * C51 + 5.44*10^(-7) * SQRT(C51)</f>
+        <v>100.86200188447127</v>
+      </c>
+      <c r="D49" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>103</v>
       </c>
       <c r="B50" t="s">
         <v>113</v>
+      </c>
+      <c r="C50" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" t="s">
+        <v>117</v>
+      </c>
+      <c r="C51">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52">
+        <v>0.25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" t="s">
+        <v>125</v>
+      </c>
+      <c r="C53">
+        <f>(C44/(C44+C45))*(C46 - 0) / C47 + (C45 / (C45+ C44))*C48 * B32</f>
+        <v>3.5804531013752681</v>
+      </c>
+      <c r="D53" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Design docs/plantsim prototyping.xlsx
+++ b/Design docs/plantsim prototyping.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="152">
   <si>
     <t>HU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -528,6 +528,98 @@
   </si>
   <si>
     <t>post growth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>water use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lambda?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>high lambda(10) = uses much water near surface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Water deficit compensation factor. 1=perfect compensation, can compensate for lack of water in one layer with abundance in another. 0 = can't</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hargreaves method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RAMX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max possible radiation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latent heat of vaporization (water)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mean temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T mx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T mn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>max temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min temperature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E(0)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>potential soil evap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plant evap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E(p)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -582,7 +674,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -591,6 +683,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -896,15 +991,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I53"/>
+  <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.75" customWidth="1"/>
     <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1038,12 +1133,12 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -1205,18 +1300,18 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="4"/>
       <c r="C26">
         <v>10</v>
       </c>
@@ -1257,11 +1352,11 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
       <c r="G29" t="s">
         <v>55</v>
       </c>
@@ -1327,11 +1422,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
       <c r="G33" t="s">
         <v>9</v>
       </c>
@@ -1472,11 +1567,11 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
       <c r="F43" t="s">
         <v>94</v>
       </c>
@@ -1523,7 +1618,7 @@
       </c>
       <c r="C46">
         <f>C5*(1-C52)</f>
-        <v>8.7709499999999991</v>
+        <v>9.004842</v>
       </c>
       <c r="D46" t="s">
         <v>100</v>
@@ -1562,7 +1657,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>111</v>
       </c>
@@ -1577,7 +1672,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>103</v>
       </c>
@@ -1588,7 +1683,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -1602,18 +1697,18 @@
         <v>118</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
         <v>122</v>
       </c>
       <c r="C52">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
       <c r="D52" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>124</v>
       </c>
@@ -1622,20 +1717,178 @@
       </c>
       <c r="C53">
         <f>(C44/(C44+C45))*(C46 - 0) / C47 + (C45 / (C45+ C44))*C48 * B32</f>
-        <v>3.5804531013752681</v>
+        <v>3.6752474556322419</v>
       </c>
       <c r="D53" t="s">
         <v>126</v>
       </c>
     </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="3">
+        <f>C5</f>
+        <v>11.694599999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="3">
+        <f>C47</f>
+        <v>2.456</v>
+      </c>
+      <c r="D56" t="s">
+        <v>106</v>
+      </c>
+      <c r="E56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="3">
+        <f>(C58+C59)/2</f>
+        <v>20.5</v>
+      </c>
+      <c r="D57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C58" s="3">
+        <v>25</v>
+      </c>
+      <c r="D58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C59">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C60">
+        <f>0.0032 * (C55/C56)*(C57+17.8)*POWER(C58-C59, 0.6)</f>
+        <v>2.1809779124879931</v>
+      </c>
+      <c r="D60" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64">
+        <v>0.8</v>
+      </c>
+      <c r="C64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B66" s="3">
+        <v>6</v>
+      </c>
+      <c r="C66" s="3"/>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>146</v>
+      </c>
+      <c r="B67">
+        <f>C60</f>
+        <v>2.1809779124879931</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68">
+        <f>MIN(B67*B66/3, B67)</f>
+        <v>2.1809779124879931</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A61:C61"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A54:C54"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Design docs/plantsim prototyping.xlsx
+++ b/Design docs/plantsim prototyping.xlsx
@@ -7,16 +7,16 @@
     <workbookView xWindow="480" yWindow="105" windowWidth="21555" windowHeight="11655"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="mechanics" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="pea N content" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="200">
   <si>
     <t>HU</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -620,6 +620,198 @@
   </si>
   <si>
     <t>LAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nitrogen usage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn(1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y = a / (1 + e^(-b * (x - c))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bn(3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y = a + b * e^(-c * HUI)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heat unit index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c(NB)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimum nitrogen concentration</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>=&gt; is nice to set as 1, to make e() range from 1 to around 0.4. Use other factors to change curve shape.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>u(l)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>plant water use (uptake)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WNO3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nitrate supply</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg/ha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>organic matter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(NO3-)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soil water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UN(l)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nitrogen supplied for layer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UND(i-1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current N demand, just before taking up new nitrogen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nitrogen demand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biomass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kg/m^2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>current nitrogen in plant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nit up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forage %</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two points</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN(s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimal nitrogen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Optimal N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -627,7 +819,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -651,16 +843,29 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -668,13 +873,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -690,8 +913,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="메모" xfId="1" builtinId="10"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -702,6 +929,1074 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'pea N content'!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.0508474576271188E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0707442888725131E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4454094292803971E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.20849609375E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2051988972036236E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0273387441264418E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="180205568"/>
+        <c:axId val="173639360"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="180205568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173639360"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="173639360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="180205568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'pea N content'!$F$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'pea N content'!$E$18:$E$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0000000000000009</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14.000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28.000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56.000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>56.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>57.999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112.00000000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>112.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>113.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>114.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>115.99999999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'pea N content'!$F$18:$F$137</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.8698306604229922E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.1161191305494956</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.17189722089389997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.22573394941145769</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.27739607197912097</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.32671217017807658</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.37356741706286695</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.41789727721338249</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.45968067540490826</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.49893307000787374</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.53569976259081542</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.57004967572358223</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.60206974384438638</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.63185999073251875</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.65952931231781986</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.6851919441374501</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.70896456658754603</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.73096398567734866</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.75130531975018533</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.77010062131360812</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.78745786580989041</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.80348024434244214</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.81826570390965248</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.83190668576313542</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.84449001954269987</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.85609693748960625</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.8668031790982782</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.87667916193785367</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.88579019903536615</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.89419674718551434</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.9019546738893861</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.90911553339184215</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.9157268445554535</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.92183236514801947</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.92747235859658772</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.93268385043315138</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.93750087257841397</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.9419546943256506</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.94607403943552837</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.94988528916731207</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.95341267137926122</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.9566784360535433</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.95970301775686351</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.96250518565204701</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.9651021817399229</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.96750984804457973</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.96974274346599476</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.97181425101816021</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.97373667615285775</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.97552133684282494</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.97717864606604687</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.97871818729745952</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.98014878357711066</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.98147856068600725</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.98271500492338526</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.98386501594261078</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.98493495506780615</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.98593068947988172</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.98685763262912074</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.9877207812019122</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.9885247489416612</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.98927379759833178</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.98997186525741765</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.99062259227732974</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.99122934504413329</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.99179523773416789</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.99232315225823275</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.99281575654560383</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.99327552131207486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="173641088"/>
+        <c:axId val="173641664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="173641088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>Nitrogen content</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173641664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="173641664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>stress factor</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="173641088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="차트 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -991,10 +2286,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:I84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1422,11 +2717,11 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
       <c r="G33" t="s">
         <v>9</v>
       </c>
@@ -1819,11 +3114,11 @@
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
+      <c r="A61" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
@@ -1844,14 +3139,14 @@
         <v>133</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="4" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>151</v>
       </c>
@@ -1860,7 +3155,7 @@
       </c>
       <c r="C66" s="3"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>146</v>
       </c>
@@ -1869,7 +3164,7 @@
         <v>2.1809779124879931</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>150</v>
       </c>
@@ -1878,8 +3173,196 @@
         <v>2.1809779124879931</v>
       </c>
     </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="F70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>153</v>
+      </c>
+      <c r="B71" t="s">
+        <v>156</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>159</v>
+      </c>
+      <c r="B73" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73">
+        <v>4</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>163</v>
+      </c>
+      <c r="B75" t="s">
+        <v>164</v>
+      </c>
+      <c r="C75">
+        <f>C71 + C72 * EXP(-C73 * C74)</f>
+        <v>8.0879213541099879E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" t="s">
+        <v>182</v>
+      </c>
+      <c r="C76">
+        <f>2600 / 1000</f>
+        <v>2.6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>185</v>
+      </c>
+      <c r="B77" t="s">
+        <v>186</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
+      </c>
+      <c r="D77" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>172</v>
+      </c>
+      <c r="C79">
+        <v>560.4</v>
+      </c>
+      <c r="D79" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" t="s">
+        <v>169</v>
+      </c>
+      <c r="C80">
+        <v>56.04</v>
+      </c>
+      <c r="D80" t="s">
+        <v>171</v>
+      </c>
+      <c r="E80" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" t="s">
+        <v>167</v>
+      </c>
+      <c r="C81">
+        <v>2.1809779119999999</v>
+      </c>
+      <c r="D81" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>174</v>
+      </c>
+      <c r="B82" t="s">
+        <v>175</v>
+      </c>
+      <c r="C82">
+        <v>67</v>
+      </c>
+      <c r="D82" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>177</v>
+      </c>
+      <c r="B83" t="s">
+        <v>178</v>
+      </c>
+      <c r="C83">
+        <f>C81/C82 * C80</f>
+        <v>1.8242089878877612</v>
+      </c>
+      <c r="D83" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>179</v>
+      </c>
+      <c r="B84" t="s">
+        <v>181</v>
+      </c>
+      <c r="C84">
+        <f>C75 * C76 - C77</f>
+        <v>0.21028595520685969</v>
+      </c>
+      <c r="E84" t="s">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="A70:C70"/>
     <mergeCell ref="A65:C65"/>
     <mergeCell ref="A61:C61"/>
     <mergeCell ref="A43:C43"/>
@@ -1892,6 +3375,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1910,13 +3394,2272 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>295</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <f>B2/A2</f>
+        <v>3.0508474576271188E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1357</v>
+      </c>
+      <c r="B3">
+        <v>28.1</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C8" si="0">B3/A3</f>
+        <v>2.0707442888725131E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3224</v>
+      </c>
+      <c r="B4">
+        <v>46.6</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>1.4454094292803971E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4096</v>
+      </c>
+      <c r="B5">
+        <v>49.5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1.20849609375E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5078</v>
+      </c>
+      <c r="B6">
+        <v>61.2</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.2051988972036236E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>4682</v>
+      </c>
+      <c r="B7">
+        <v>48.1</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>1.0273387441264418E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>396</v>
+      </c>
+      <c r="B8">
+        <v>13.1</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>3.3080808080808079E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11">
+        <v>0.25</v>
+      </c>
+      <c r="G11">
+        <v>0.25</v>
+      </c>
+      <c r="H11">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>197</v>
+      </c>
+      <c r="F12">
+        <v>0.5</v>
+      </c>
+      <c r="G12">
+        <v>0.5</v>
+      </c>
+      <c r="H12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" t="e">
+        <f>200 * F11/(F12 - 0.5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G13">
+        <f>MIN(100*G11/(G12 * 0.5), 100)</f>
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <f>MAX(200 * H11/H12 - 100,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f>C2</f>
+        <v>3.0508474576271188E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" t="e">
+        <f>F13 / (F13 + EXP(3.52 - 0.026 * F13))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G14">
+        <f>G13 / (G13 + EXP(3.52 - 0.026 * G13))</f>
+        <v>0.97552133684282494</v>
+      </c>
+      <c r="H14">
+        <f>H13 / (H13 + EXP(3.52 - 0.026 * H13))</f>
+        <v>0.22573394941145769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <f>C7</f>
+        <v>1.0273387441264418E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>192</v>
+      </c>
+      <c r="B16">
+        <v>0.5</v>
+      </c>
+      <c r="E16" t="s">
+        <v>198</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B17">
+        <f>B14-B16</f>
+        <v>-0.46949152542372879</v>
+      </c>
+      <c r="E17" t="s">
+        <v>199</v>
+      </c>
+      <c r="F17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>D18*$F$16</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>G18 / (G18 + EXP(3.52 - 0.026 * G18))</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>MAX(200 * E18/$F$16 - 100, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B19">
+        <f>-LN((B15-B17)/B16)</f>
+        <v>4.1311879358838156E-2</v>
+      </c>
+      <c r="D19">
+        <v>0.01</v>
+      </c>
+      <c r="E19">
+        <f>D19*$F$16</f>
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ref="F19:F82" si="1">G19 / (G19 + EXP(3.52 - 0.026 * G19))</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ref="G19:G82" si="2">MAX(200 * E19/$F$16 - 100, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D20">
+        <v>0.02</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ref="E20:E82" si="3">D20*$F$16</f>
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>0.03</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D22">
+        <v>0.04</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>0.05</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D24">
+        <v>0.06</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D25">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>7.0000000000000009</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D26">
+        <v>0.08</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D27">
+        <v>0.09</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D28">
+        <v>0.1</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D29">
+        <v>0.11</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D30">
+        <v>0.12</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D31">
+        <v>0.13</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="3"/>
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="3"/>
+        <v>14.000000000000002</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D33">
+        <v>0.15</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="3"/>
+        <v>15</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D34">
+        <v>0.16</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="3"/>
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D35">
+        <v>0.17</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="3"/>
+        <v>17</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D36">
+        <v>0.18</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="3"/>
+        <v>18</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D37">
+        <v>0.19</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D38">
+        <v>0.2</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D39">
+        <v>0.21</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>21</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D40">
+        <v>0.22</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D41">
+        <v>0.23</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>23</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D42">
+        <v>0.24</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D43">
+        <v>0.25</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D44">
+        <v>0.26</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>26</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D45">
+        <v>0.27</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>27</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D46">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>28.000000000000004</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D47">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>28.999999999999996</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D48">
+        <v>0.3</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D49">
+        <v>0.31</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D50">
+        <v>0.32</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D51">
+        <v>0.33</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D52">
+        <v>0.34</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D53">
+        <v>0.35</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D54">
+        <v>0.36</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D55">
+        <v>0.37</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D56">
+        <v>0.38</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D57">
+        <v>0.39</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D58">
+        <v>0.4</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D59">
+        <v>0.41</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D60">
+        <v>0.42</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D61">
+        <v>0.43</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>43</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D62">
+        <v>0.44</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="3"/>
+        <v>44</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D63">
+        <v>0.45</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D64">
+        <v>0.46</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="3"/>
+        <v>46</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D65">
+        <v>0.47</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="3"/>
+        <v>47</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>0.48</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <v>0.49</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="3"/>
+        <v>49</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <v>0.5</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <v>0.51</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="3"/>
+        <v>51</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>5.8698306604229922E-2</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <v>0.52</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="3"/>
+        <v>52</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>0.1161191305494956</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <v>0.53</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="3"/>
+        <v>53</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>0.17189722089389997</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <v>0.54</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="3"/>
+        <v>54</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>0.22573394941145769</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E73">
+        <f t="shared" si="3"/>
+        <v>55.000000000000007</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>0.27739607197912097</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="2"/>
+        <v>10.000000000000014</v>
+      </c>
+    </row>
+    <row r="74" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E74">
+        <f t="shared" si="3"/>
+        <v>56.000000000000007</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>0.32671217017807658</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="2"/>
+        <v>12.000000000000014</v>
+      </c>
+    </row>
+    <row r="75" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="3"/>
+        <v>56.999999999999993</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>0.37356741706286695</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="2"/>
+        <v>13.999999999999986</v>
+      </c>
+    </row>
+    <row r="76" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="3"/>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>0.41789727721338249</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="2"/>
+        <v>15.999999999999986</v>
+      </c>
+    </row>
+    <row r="77" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <v>0.59</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="3"/>
+        <v>59</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>0.45968067540490826</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <v>0.6</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>0.49893307000787374</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <v>0.61</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="3"/>
+        <v>61</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>0.53569976259081542</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <v>0.62</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="3"/>
+        <v>62</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>0.57004967572358223</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <v>0.63</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="3"/>
+        <v>63</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>0.60206974384438638</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <v>0.64</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>0.63185999073251875</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <v>0.65</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ref="E83:E137" si="4">D83*$F$16</f>
+        <v>65</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ref="F83:F137" si="5">G83 / (G83 + EXP(3.52 - 0.026 * G83))</f>
+        <v>0.65952931231781986</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ref="G83:G137" si="6">MAX(200 * E83/$F$16 - 100, 0)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="84" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <v>0.66</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="4"/>
+        <v>66</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="5"/>
+        <v>0.6851919441374501</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="6"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <v>0.67</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="5"/>
+        <v>0.70896456658754603</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="6"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <v>0.68</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="5"/>
+        <v>0.73096398567734866</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="6"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D87">
+        <v>0.69</v>
+      </c>
+      <c r="E87">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="5"/>
+        <v>0.75130531975018533</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="6"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D88">
+        <v>0.7</v>
+      </c>
+      <c r="E88">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="5"/>
+        <v>0.77010062131360812</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D89">
+        <v>0.71</v>
+      </c>
+      <c r="E89">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="5"/>
+        <v>0.78745786580989041</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="6"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D90">
+        <v>0.72</v>
+      </c>
+      <c r="E90">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="5"/>
+        <v>0.80348024434244214</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D91">
+        <v>0.73</v>
+      </c>
+      <c r="E91">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="5"/>
+        <v>0.81826570390965248</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="6"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D92">
+        <v>0.74</v>
+      </c>
+      <c r="E92">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="5"/>
+        <v>0.83190668576313542</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="6"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>0.75</v>
+      </c>
+      <c r="E93">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="5"/>
+        <v>0.84449001954269987</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="6"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>0.76</v>
+      </c>
+      <c r="E94">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="5"/>
+        <v>0.85609693748960625</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="6"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>0.77</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="5"/>
+        <v>0.8668031790982782</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="6"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="96" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>0.78</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="5"/>
+        <v>0.87667916193785367</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="6"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>0.79</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="5"/>
+        <v>0.88579019903536615</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="6"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>0.8</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="5"/>
+        <v>0.89419674718551434</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="6"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>0.81</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="5"/>
+        <v>0.9019546738893861</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="6"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="100" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D100">
+        <v>0.82</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="5"/>
+        <v>0.90911553339184215</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="101" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D101">
+        <v>0.83</v>
+      </c>
+      <c r="E101">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="5"/>
+        <v>0.9157268445554535</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="102" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D102">
+        <v>0.84</v>
+      </c>
+      <c r="E102">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="5"/>
+        <v>0.92183236514801947</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="6"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="103" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D103">
+        <v>0.85</v>
+      </c>
+      <c r="E103">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="5"/>
+        <v>0.92747235859658772</v>
+      </c>
+      <c r="G103">
+        <f t="shared" si="6"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D104">
+        <v>0.86</v>
+      </c>
+      <c r="E104">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="5"/>
+        <v>0.93268385043315138</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="6"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="105" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D105">
+        <v>0.87</v>
+      </c>
+      <c r="E105">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="5"/>
+        <v>0.93750087257841397</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="6"/>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D106">
+        <v>0.88</v>
+      </c>
+      <c r="E106">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="5"/>
+        <v>0.9419546943256506</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="6"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D107">
+        <v>0.89</v>
+      </c>
+      <c r="E107">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="5"/>
+        <v>0.94607403943552837</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="6"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D108">
+        <v>0.9</v>
+      </c>
+      <c r="E108">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="5"/>
+        <v>0.94988528916731207</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="6"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D109">
+        <v>0.91</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="5"/>
+        <v>0.95341267137926122</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="6"/>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D110">
+        <v>0.92</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="5"/>
+        <v>0.9566784360535433</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="6"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D111">
+        <v>0.93</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="5"/>
+        <v>0.95970301775686351</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="6"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="112" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D112">
+        <v>0.94</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="5"/>
+        <v>0.96250518565204701</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="113" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D113">
+        <v>0.95</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="5"/>
+        <v>0.9651021817399229</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="114" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D114">
+        <v>0.96</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="5"/>
+        <v>0.96750984804457973</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="6"/>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D115">
+        <v>0.97</v>
+      </c>
+      <c r="E115">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="5"/>
+        <v>0.96974274346599476</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="6"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="116" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D116">
+        <v>0.98</v>
+      </c>
+      <c r="E116">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="5"/>
+        <v>0.97181425101816021</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="6"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D117">
+        <v>0.99</v>
+      </c>
+      <c r="E117">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="5"/>
+        <v>0.97373667615285775</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="6"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="118" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <f t="shared" si="4"/>
+        <v>100</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="5"/>
+        <v>0.97552133684282494</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="119" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D119">
+        <v>1.01</v>
+      </c>
+      <c r="E119">
+        <f t="shared" si="4"/>
+        <v>101</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="5"/>
+        <v>0.97717864606604687</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="6"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="120" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D120">
+        <v>1.02</v>
+      </c>
+      <c r="E120">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="5"/>
+        <v>0.97871818729745952</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="6"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="121" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D121">
+        <v>1.03</v>
+      </c>
+      <c r="E121">
+        <f t="shared" si="4"/>
+        <v>103</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="5"/>
+        <v>0.98014878357711066</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="6"/>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="122" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D122">
+        <v>1.04</v>
+      </c>
+      <c r="E122">
+        <f t="shared" si="4"/>
+        <v>104</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="5"/>
+        <v>0.98147856068600725</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="6"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="123" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D123">
+        <v>1.05</v>
+      </c>
+      <c r="E123">
+        <f t="shared" si="4"/>
+        <v>105</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="5"/>
+        <v>0.98271500492338526</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="6"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="124" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D124">
+        <v>1.06</v>
+      </c>
+      <c r="E124">
+        <f t="shared" si="4"/>
+        <v>106</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="5"/>
+        <v>0.98386501594261078</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="6"/>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="125" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D125">
+        <v>1.07</v>
+      </c>
+      <c r="E125">
+        <f t="shared" si="4"/>
+        <v>107</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="5"/>
+        <v>0.98493495506780615</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="6"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="126" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D126">
+        <v>1.08</v>
+      </c>
+      <c r="E126">
+        <f t="shared" si="4"/>
+        <v>108</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="5"/>
+        <v>0.98593068947988172</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="6"/>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="127" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D127">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E127">
+        <f t="shared" si="4"/>
+        <v>109.00000000000001</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="5"/>
+        <v>0.98685763262912074</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="6"/>
+        <v>118.00000000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D128">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E128">
+        <f t="shared" si="4"/>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="F128">
+        <f t="shared" si="5"/>
+        <v>0.9877207812019122</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="6"/>
+        <v>120.00000000000003</v>
+      </c>
+    </row>
+    <row r="129" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D129">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="E129">
+        <f t="shared" si="4"/>
+        <v>111.00000000000001</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="5"/>
+        <v>0.9885247489416612</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="6"/>
+        <v>122.00000000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D130">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="E130">
+        <f t="shared" si="4"/>
+        <v>112.00000000000001</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="5"/>
+        <v>0.98927379759833178</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="6"/>
+        <v>124.00000000000003</v>
+      </c>
+    </row>
+    <row r="131" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D131">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E131">
+        <f t="shared" si="4"/>
+        <v>112.99999999999999</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="5"/>
+        <v>0.98997186525741765</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="6"/>
+        <v>125.99999999999997</v>
+      </c>
+    </row>
+    <row r="132" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D132">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E132">
+        <f t="shared" si="4"/>
+        <v>113.99999999999999</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="5"/>
+        <v>0.99062259227732974</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="6"/>
+        <v>127.99999999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D133">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E133">
+        <f t="shared" si="4"/>
+        <v>114.99999999999999</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="5"/>
+        <v>0.99122934504413329</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="6"/>
+        <v>129.99999999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D134">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E134">
+        <f t="shared" si="4"/>
+        <v>115.99999999999999</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="5"/>
+        <v>0.99179523773416789</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="6"/>
+        <v>131.99999999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D135">
+        <v>1.17</v>
+      </c>
+      <c r="E135">
+        <f t="shared" si="4"/>
+        <v>117</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="5"/>
+        <v>0.99232315225823275</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="6"/>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D136">
+        <v>1.18</v>
+      </c>
+      <c r="E136">
+        <f t="shared" si="4"/>
+        <v>118</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="5"/>
+        <v>0.99281575654560383</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="6"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D137">
+        <v>1.19</v>
+      </c>
+      <c r="E137">
+        <f t="shared" si="4"/>
+        <v>119</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="5"/>
+        <v>0.99327552131207486</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="6"/>
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>